--- a/template_excel/contoh_data_input_pembagian_kelas.xlsx
+++ b/template_excel/contoh_data_input_pembagian_kelas.xlsx
@@ -47,7 +47,7 @@
     <t>7a</t>
   </si>
   <si>
-    <t>198609252020041004</t>
+    <t>1975120120200422227</t>
   </si>
   <si>
     <t>petunjuk</t>
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4">
-        <v>20081</v>
+        <v>20111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:9">
       <c r="A3" s="4">
-        <v>20082</v>
+        <v>20112</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
